--- a/biology/Médecine/Claudine_Escoffier-Lambiotte/Claudine_Escoffier-Lambiotte.xlsx
+++ b/biology/Médecine/Claudine_Escoffier-Lambiotte/Claudine_Escoffier-Lambiotte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claudine Escoffier-Lambiotte, née le 16 juillet 1923 à Bruges en Belgique et morte le 4 janvier 1996 à Neuilly-sur-Seine[1],[2], est une médecin et journaliste belge. Elle dirige la rubrique médicale du quotidien Le Monde de 1956 à 1988. Elle est membre cofondatrice de la Fondation pour la recherche médicale en 1962. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claudine Escoffier-Lambiotte, née le 16 juillet 1923 à Bruges en Belgique et morte le 4 janvier 1996 à Neuilly-sur-Seine est une médecin et journaliste belge. Elle dirige la rubrique médicale du quotidien Le Monde de 1956 à 1988. Elle est membre cofondatrice de la Fondation pour la recherche médicale en 1962. 
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle fait ses études médicales durant l'occupation en Belgique, où elle obtient son doctorat[3], puis un deuxième doctorat à l'université Columbia où elle a obtenu une bourse d'études, et un troisième doctorat en France[4]. Précocement veuve d'un chirurgien, elle est mère de quatre enfants[3].
-Elle est recrutée par Hubert Beuve-Méry en 1956[5]. Elle est chef de la rubrique médicale du journal Le Monde de 1956 à 1988. Elle « contribue à imposer au Monde la médecine comme spécialité autonome » et obtient la création du « Monde de la médecine à partir de 1967 et l'embauche de Martine Allain-Regnault à la fin des années 1960, tandis que Claire Brisset vient renforcer la rubrique médicale dans les années 1970[5]. Elle publiait également régulièrement dans Le Monde diplomatique[2].
-« Femme de combats et de conviction […] elle inventa, pratiquement seule dans la presse, le journalisme d'information médicale »[6]. Elle s'engage pour la contraception, contre l'acharnement thérapeutique[3], enquête sur le scandale du Distilbène[7].
-Elle est cofondatrice, en 1962[3],[8], puis secrétaire générale, de la Fondation pour la recherche médicale qui crée un prix en son honneur[8],[9]. Elle est co-lauréate, avec Martine Allain-Regnault du prix de l'information scientifique de l'Académie des sciences, en 1988[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle fait ses études médicales durant l'occupation en Belgique, où elle obtient son doctorat, puis un deuxième doctorat à l'université Columbia où elle a obtenu une bourse d'études, et un troisième doctorat en France. Précocement veuve d'un chirurgien, elle est mère de quatre enfants.
+Elle est recrutée par Hubert Beuve-Méry en 1956. Elle est chef de la rubrique médicale du journal Le Monde de 1956 à 1988. Elle « contribue à imposer au Monde la médecine comme spécialité autonome » et obtient la création du « Monde de la médecine à partir de 1967 et l'embauche de Martine Allain-Regnault à la fin des années 1960, tandis que Claire Brisset vient renforcer la rubrique médicale dans les années 1970. Elle publiait également régulièrement dans Le Monde diplomatique.
+« Femme de combats et de conviction […] elle inventa, pratiquement seule dans la presse, le journalisme d'information médicale ». Elle s'engage pour la contraception, contre l'acharnement thérapeutique, enquête sur le scandale du Distilbène.
+Elle est cofondatrice, en 1962 puis secrétaire générale, de la Fondation pour la recherche médicale qui crée un prix en son honneur,. Elle est co-lauréate, avec Martine Allain-Regnault du prix de l'information scientifique de l'Académie des sciences, en 1988.
 Elle meurt le 4 janvier 1996 à Neuilly-sur-Seine.
 </t>
         </is>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Documentaire télévisé
-Claudine Escoffier-Lambiotte (auteur), Martine Allain-Regnault (auteur) et Claude de Givray (réalisateur), La Santé en cartes perforées, Paris, ORTF, coll. « Horizons », 1972 (BNF 38546484)Support : 1 cassette vidéo VHS ; durée : 54 min environ ; narrateur : Jean-Roger Caussimon. Première diffusion télévisée : 14 février 1972 ; chaîne non connue. </t>
+          <t>Documentaire télévisé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claudine Escoffier-Lambiotte (auteur), Martine Allain-Regnault (auteur) et Claude de Givray (réalisateur), La Santé en cartes perforées, Paris, ORTF, coll. « Horizons », 1972 (BNF 38546484)Support : 1 cassette vidéo VHS ; durée : 54 min environ ; narrateur : Jean-Roger Caussimon. Première diffusion télévisée : 14 février 1972 ; chaîne non connue. </t>
         </is>
       </c>
     </row>
